--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_22_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_22_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>179705.2797574273</v>
+        <v>203165.6802735372</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24295412.1082302</v>
+        <v>24256127.46751807</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2578937.827470855</v>
+        <v>2587981.668620911</v>
       </c>
     </row>
     <row r="11">
@@ -22559,49 +22561,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.2552920008841</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>338.9889007429445</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>208.6467463822456</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>177.0190258115284</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K2" t="n">
-        <v>214.0546037115793</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>228.279156979828</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>222.0152160730529</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>220.9472418750055</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>222.1041760324344</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>224.4102714990879</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
-        <v>217.1821080973806</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R2" t="n">
-        <v>212.6051885295649</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S2" t="n">
-        <v>207.9389049302515</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>222.8881568254978</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3418572666964</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22638,49 +22640,49 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3181315750904</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>111.9902728985985</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>98.64835865463272</v>
+        <v>99.52238</v>
       </c>
       <c r="J3" t="n">
-        <v>124.4392452907996</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K3" t="n">
-        <v>133.7422231944371</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>133.0424782891217</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>135.7019048619078</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>124.739343706399</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>136.5563672569108</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>129.1268734863556</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>136.741326030535</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>144.1033706945348</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S3" t="n">
-        <v>171.2116449385346</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.0624069602493</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9397119764932</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22717,49 +22719,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9696969341359</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.0379524075512</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>154.8104543848956</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>125.4907540397727</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K4" t="n">
-        <v>126.5406274173932</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L4" t="n">
-        <v>131.7205602141892</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M4" t="n">
-        <v>135.5896671967106</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N4" t="n">
-        <v>124.4287531140874</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O4" t="n">
-        <v>135.4483645121045</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
-        <v>135.1539915655949</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q4" t="n">
-        <v>149.7228888072868</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R4" t="n">
-        <v>176.3364561889816</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>223.6457034240009</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.8546554334476</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3178684969824</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -23033,49 +23035,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>414.2543098065221</v>
+        <v>414.3406165929539</v>
       </c>
       <c r="H8" t="n">
-        <v>328.737591844935</v>
+        <v>329.6214812214793</v>
       </c>
       <c r="I8" t="n">
-        <v>170.0563803341062</v>
+        <v>173.3837227180163</v>
       </c>
       <c r="J8" t="n">
-        <v>92.06191329280011</v>
+        <v>99.38709390771217</v>
       </c>
       <c r="K8" t="n">
-        <v>86.72591490550931</v>
+        <v>97.7044617900775</v>
       </c>
       <c r="L8" t="n">
-        <v>70.31665934305323</v>
+        <v>83.93651754288217</v>
       </c>
       <c r="M8" t="n">
-        <v>46.25150133729363</v>
+        <v>61.40621785032832</v>
       </c>
       <c r="N8" t="n">
-        <v>42.33948647951536</v>
+        <v>57.73942214949923</v>
       </c>
       <c r="O8" t="n">
-        <v>53.44993733213093</v>
+        <v>67.99165989453405</v>
       </c>
       <c r="P8" t="n">
-        <v>80.46778072209531</v>
+        <v>92.87880449446453</v>
       </c>
       <c r="Q8" t="n">
-        <v>109.0872921559756</v>
+        <v>118.4074541392576</v>
       </c>
       <c r="R8" t="n">
-        <v>149.7272407629755</v>
+        <v>155.1487094361692</v>
       </c>
       <c r="S8" t="n">
-        <v>185.1290231762283</v>
+        <v>187.0957390720419</v>
       </c>
       <c r="T8" t="n">
-        <v>218.5063572696783</v>
+        <v>218.8841652272833</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2617786911475</v>
+        <v>251.268683234062</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23112,49 +23114,49 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.7825588849655</v>
+        <v>136.8287370867813</v>
       </c>
       <c r="H9" t="n">
-        <v>106.817768233445</v>
+        <v>107.2637524457188</v>
       </c>
       <c r="I9" t="n">
-        <v>80.20868489375378</v>
+        <v>81.79859228083355</v>
       </c>
       <c r="J9" t="n">
-        <v>73.83937108913167</v>
+        <v>78.20219848086228</v>
       </c>
       <c r="K9" t="n">
-        <v>47.25897875440141</v>
+        <v>54.71574566779194</v>
       </c>
       <c r="L9" t="n">
-        <v>16.75508344424118</v>
+        <v>26.7816267814875</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>11.7005031530698</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>9.130000058643361</v>
+        <v>20.11696897926959</v>
       </c>
       <c r="P9" t="n">
-        <v>26.85597970277001</v>
+        <v>35.67399088986284</v>
       </c>
       <c r="Q9" t="n">
-        <v>68.37594193669796</v>
+        <v>74.27054889129279</v>
       </c>
       <c r="R9" t="n">
-        <v>110.8508838462542</v>
+        <v>113.7179830782926</v>
       </c>
       <c r="S9" t="n">
-        <v>161.2636171197674</v>
+        <v>162.121356964899</v>
       </c>
       <c r="T9" t="n">
-        <v>197.9036731785617</v>
+        <v>198.0898037376351</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9044769310903</v>
+        <v>225.9075149706834</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23191,49 +23193,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.5206907817879</v>
+        <v>167.559405034964</v>
       </c>
       <c r="H10" t="n">
-        <v>158.0458795257661</v>
+        <v>158.3900844312768</v>
       </c>
       <c r="I10" t="n">
-        <v>141.3076148215571</v>
+        <v>142.4718579988877</v>
       </c>
       <c r="J10" t="n">
-        <v>93.74601906876785</v>
+        <v>96.48311676831437</v>
       </c>
       <c r="K10" t="n">
-        <v>74.37427626277801</v>
+        <v>78.87216858632236</v>
       </c>
       <c r="L10" t="n">
-        <v>64.96559098237566</v>
+        <v>70.72134458638538</v>
       </c>
       <c r="M10" t="n">
-        <v>65.20591187910269</v>
+        <v>71.27454703832609</v>
       </c>
       <c r="N10" t="n">
-        <v>55.71856618250388</v>
+        <v>61.64290276170749</v>
       </c>
       <c r="O10" t="n">
-        <v>71.98338581476828</v>
+        <v>77.45546952732445</v>
       </c>
       <c r="P10" t="n">
-        <v>80.84873837615825</v>
+        <v>85.53105132392307</v>
       </c>
       <c r="Q10" t="n">
-        <v>112.1247463593087</v>
+        <v>115.3665371411684</v>
       </c>
       <c r="R10" t="n">
-        <v>156.1475068297698</v>
+        <v>157.8882404316673</v>
       </c>
       <c r="S10" t="n">
-        <v>215.8207507508087</v>
+        <v>216.4954345993403</v>
       </c>
       <c r="T10" t="n">
-        <v>225.9361746006879</v>
+        <v>226.1015900460765</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2954889388457</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23270,49 +23272,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H11" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I11" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J11" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K11" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L11" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M11" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P11" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q11" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R11" t="n">
-        <v>134.8218408634681</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S11" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,19 +23351,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I12" t="n">
-        <v>75.83750674330533</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J12" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K12" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23376,22 +23378,22 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R12" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S12" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T12" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,49 +23430,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H13" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I13" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J13" t="n">
-        <v>86.2208375662932</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K13" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L13" t="n">
-        <v>49.14113189899255</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M13" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N13" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O13" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P13" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q13" t="n">
-        <v>103.2119976362414</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R13" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S13" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T13" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23507,49 +23509,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H14" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I14" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J14" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K14" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L14" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M14" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P14" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q14" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R14" t="n">
-        <v>134.8218408634681</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S14" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23586,19 +23588,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H15" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I15" t="n">
-        <v>75.83750674330533</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J15" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K15" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23613,22 +23615,22 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R15" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S15" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T15" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23665,49 +23667,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I16" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J16" t="n">
-        <v>86.2208375662932</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K16" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L16" t="n">
-        <v>49.14113189899255</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M16" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N16" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O16" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P16" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q16" t="n">
-        <v>103.2119976362414</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R16" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S16" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T16" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,49 +23746,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H17" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I17" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J17" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K17" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L17" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M17" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P17" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q17" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R17" t="n">
-        <v>134.8218408634681</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S17" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,19 +23825,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I18" t="n">
-        <v>75.83750674330533</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J18" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K18" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23850,22 +23852,22 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R18" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S18" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T18" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23902,49 +23904,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H19" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I19" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J19" t="n">
-        <v>86.2208375662932</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K19" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L19" t="n">
-        <v>49.14113189899255</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M19" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N19" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O19" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P19" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q19" t="n">
-        <v>103.2119976362414</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R19" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S19" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T19" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23981,49 +23983,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H20" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I20" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J20" t="n">
-        <v>71.92258334679383</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K20" t="n">
-        <v>56.54227989916996</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L20" t="n">
-        <v>32.8711910981084</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M20" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>13.46996085601003</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P20" t="n">
-        <v>46.34579576917247</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q20" t="n">
-        <v>83.46310250126157</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R20" t="n">
-        <v>134.8218408634681</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S20" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24060,19 +24062,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H21" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I21" t="n">
-        <v>75.83750674330533</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J21" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K21" t="n">
-        <v>26.75787480980772</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24087,22 +24089,22 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>52.16972933916271</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R21" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S21" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T21" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24139,49 +24141,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H22" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I22" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J22" t="n">
-        <v>86.2208375662932</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K22" t="n">
-        <v>62.00809140979796</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L22" t="n">
-        <v>49.14113189899257</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M22" t="n">
-        <v>48.52123852856002</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N22" t="n">
-        <v>39.43061707215854</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O22" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P22" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q22" t="n">
-        <v>103.2119976362414</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R22" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S22" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T22" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24218,49 +24220,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H23" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I23" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J23" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K23" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L23" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M23" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P23" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q23" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R23" t="n">
-        <v>134.8218408634681</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S23" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24297,19 +24299,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H24" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I24" t="n">
-        <v>75.83750674330533</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J24" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K24" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24324,22 +24326,22 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R24" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S24" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T24" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24376,49 +24378,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H25" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I25" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J25" t="n">
-        <v>86.2208375662932</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K25" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L25" t="n">
-        <v>49.14113189899255</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M25" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N25" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O25" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P25" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q25" t="n">
-        <v>103.2119976362414</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R25" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S25" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T25" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24455,49 +24457,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H26" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I26" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J26" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K26" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L26" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M26" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P26" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q26" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R26" t="n">
-        <v>134.8218408634681</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S26" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T26" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24534,19 +24536,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I27" t="n">
-        <v>75.83750674330533</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J27" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K27" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24561,22 +24563,22 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R27" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S27" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T27" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24613,49 +24615,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H28" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I28" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J28" t="n">
-        <v>86.2208375662932</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K28" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L28" t="n">
-        <v>49.14113189899255</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M28" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N28" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O28" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P28" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q28" t="n">
-        <v>103.2119976362414</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R28" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S28" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T28" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24692,49 +24694,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H29" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I29" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J29" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K29" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L29" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M29" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P29" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q29" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R29" t="n">
-        <v>134.8218408634681</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S29" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24771,19 +24773,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I30" t="n">
-        <v>75.83750674330533</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J30" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K30" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24798,22 +24800,22 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R30" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S30" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T30" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24850,49 +24852,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H31" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I31" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J31" t="n">
-        <v>86.2208375662932</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K31" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L31" t="n">
-        <v>49.14113189899255</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M31" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N31" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O31" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P31" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q31" t="n">
-        <v>103.2119976362414</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R31" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S31" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T31" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24929,49 +24931,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H32" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I32" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J32" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K32" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L32" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M32" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P32" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q32" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R32" t="n">
-        <v>134.8218408634681</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S32" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25008,19 +25010,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I33" t="n">
-        <v>75.83750674330533</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J33" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K33" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25035,22 +25037,22 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R33" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S33" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T33" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25087,49 +25089,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H34" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I34" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J34" t="n">
-        <v>86.2208375662932</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K34" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L34" t="n">
-        <v>49.14113189899255</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M34" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N34" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O34" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P34" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q34" t="n">
-        <v>103.2119976362414</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R34" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S34" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T34" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25166,49 +25168,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H35" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I35" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J35" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K35" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L35" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M35" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P35" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q35" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R35" t="n">
-        <v>134.8218408634681</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S35" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25245,19 +25247,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I36" t="n">
-        <v>75.83750674330533</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J36" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K36" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25272,22 +25274,22 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R36" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S36" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T36" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25324,49 +25326,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H37" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I37" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J37" t="n">
-        <v>86.2208375662932</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K37" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L37" t="n">
-        <v>49.14113189899255</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M37" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N37" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O37" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P37" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q37" t="n">
-        <v>103.2119976362414</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R37" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S37" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T37" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25403,49 +25405,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H38" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I38" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J38" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K38" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L38" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M38" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P38" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q38" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R38" t="n">
-        <v>134.8218408634681</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S38" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25482,19 +25484,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H39" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I39" t="n">
-        <v>75.83750674330533</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J39" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K39" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25509,22 +25511,22 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R39" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S39" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T39" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25561,49 +25563,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H40" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I40" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J40" t="n">
-        <v>86.2208375662932</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K40" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L40" t="n">
-        <v>49.14113189899255</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M40" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N40" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O40" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P40" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q40" t="n">
-        <v>103.2119976362414</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R40" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S40" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T40" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25640,49 +25642,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H41" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I41" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J41" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K41" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L41" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M41" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P41" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q41" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R41" t="n">
-        <v>134.8218408634681</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S41" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25719,19 +25721,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I42" t="n">
-        <v>75.83750674330533</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J42" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K42" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25746,22 +25748,22 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R42" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S42" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T42" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25798,49 +25800,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H43" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I43" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J43" t="n">
-        <v>86.2208375662932</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K43" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L43" t="n">
-        <v>49.14113189899255</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M43" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N43" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O43" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P43" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q43" t="n">
-        <v>103.2119976362414</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R43" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S43" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T43" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25877,49 +25879,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H44" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I44" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J44" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K44" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L44" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M44" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P44" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q44" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R44" t="n">
-        <v>134.8218408634681</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S44" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,19 +25958,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I45" t="n">
-        <v>75.83750674330533</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J45" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K45" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25983,22 +25985,22 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R45" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S45" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T45" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,49 +26037,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H46" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I46" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J46" t="n">
-        <v>86.2208375662932</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K46" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L46" t="n">
-        <v>49.14113189899255</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M46" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N46" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O46" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P46" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q46" t="n">
-        <v>103.2119976362414</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R46" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S46" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T46" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9554.442731039224</v>
+        <v>-9.158611646853386e-12</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>210311.7361560643</v>
+        <v>193606.2528988509</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>252641.907983903</v>
+        <v>256565.3067810427</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>252641.907983903</v>
+        <v>256565.3067810427</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>252641.907983903</v>
+        <v>256565.3067810427</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>252641.907983903</v>
+        <v>256565.3067810427</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>252641.907983903</v>
+        <v>256565.3067810427</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>252641.907983903</v>
+        <v>256565.3067810427</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>252641.907983903</v>
+        <v>256565.3067810427</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>252641.907983903</v>
+        <v>256565.3067810427</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>252641.907983903</v>
+        <v>256565.3067810427</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>252641.907983903</v>
+        <v>256565.3067810427</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>252641.907983903</v>
+        <v>256565.3067810427</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>252641.907983903</v>
+        <v>256565.3067810427</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3064.632574106924</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>60965.10618761557</v>
       </c>
       <c r="D2" t="n">
-        <v>67458.48140854895</v>
+        <v>62100.11885434844</v>
       </c>
       <c r="E2" t="n">
-        <v>81036.08369295009</v>
+        <v>82294.53236373072</v>
       </c>
       <c r="F2" t="n">
-        <v>81036.08369295009</v>
+        <v>82294.53236373072</v>
       </c>
       <c r="G2" t="n">
-        <v>81036.08369295009</v>
+        <v>82294.5323637307</v>
       </c>
       <c r="H2" t="n">
-        <v>81036.08369295009</v>
+        <v>82294.5323637307</v>
       </c>
       <c r="I2" t="n">
-        <v>81036.08369295011</v>
+        <v>82294.5323637307</v>
       </c>
       <c r="J2" t="n">
-        <v>81036.08369295011</v>
+        <v>82294.53236373072</v>
       </c>
       <c r="K2" t="n">
-        <v>81036.08369295011</v>
+        <v>82294.53236373072</v>
       </c>
       <c r="L2" t="n">
-        <v>81036.08369295011</v>
+        <v>82294.53236373072</v>
       </c>
       <c r="M2" t="n">
-        <v>81036.08369295011</v>
+        <v>82294.53236373072</v>
       </c>
       <c r="N2" t="n">
-        <v>81036.08369295011</v>
+        <v>82294.53236373072</v>
       </c>
       <c r="O2" t="n">
-        <v>81036.08369295011</v>
+        <v>82294.5323637307</v>
       </c>
       <c r="P2" t="n">
-        <v>81036.08369295008</v>
+        <v>82294.5323637307</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11372.629688074</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>203044.1822108271</v>
+        <v>213791.1722776066</v>
       </c>
       <c r="D3" t="n">
-        <v>22280.77012981693</v>
+        <v>3894.578006269939</v>
       </c>
       <c r="E3" t="n">
-        <v>47420.72226727416</v>
+        <v>69778.64573719917</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33884.88516240442</v>
+        <v>33627.6</v>
       </c>
       <c r="C5" t="n">
         <v>38745.80483114667</v>
       </c>
       <c r="D5" t="n">
-        <v>39312.96135688073</v>
+        <v>38844.94123075794</v>
       </c>
       <c r="E5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="F5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="G5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="H5" t="n">
-        <v>6972.102563257328</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="I5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="J5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="K5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="L5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="M5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="N5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="O5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="P5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-42192.88227637149</v>
+        <v>-33627.6</v>
       </c>
       <c r="C6" t="n">
-        <v>-180824.8808543582</v>
+        <v>-191571.8709211377</v>
       </c>
       <c r="D6" t="n">
-        <v>5864.749921851289</v>
+        <v>19360.59961732056</v>
       </c>
       <c r="E6" t="n">
-        <v>26643.2588624186</v>
+        <v>5405.131409180396</v>
       </c>
       <c r="F6" t="n">
-        <v>74063.98112969277</v>
+        <v>75183.77714637957</v>
       </c>
       <c r="G6" t="n">
-        <v>74063.98112969277</v>
+        <v>75183.77714637955</v>
       </c>
       <c r="H6" t="n">
-        <v>74063.98112969277</v>
+        <v>75183.77714637955</v>
       </c>
       <c r="I6" t="n">
-        <v>74063.98112969278</v>
+        <v>75183.77714637955</v>
       </c>
       <c r="J6" t="n">
-        <v>74063.98112969278</v>
+        <v>75183.77714637957</v>
       </c>
       <c r="K6" t="n">
-        <v>74063.98112969278</v>
+        <v>75183.77714637957</v>
       </c>
       <c r="L6" t="n">
-        <v>74063.98112969278</v>
+        <v>75183.77714637957</v>
       </c>
       <c r="M6" t="n">
-        <v>74063.98112969278</v>
+        <v>75183.77714637957</v>
       </c>
       <c r="N6" t="n">
-        <v>74063.98112969278</v>
+        <v>75183.77714637957</v>
       </c>
       <c r="O6" t="n">
-        <v>74063.98112969278</v>
+        <v>75183.77714637955</v>
       </c>
       <c r="P6" t="n">
-        <v>74063.98112969275</v>
+        <v>75183.77714637955</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.80207166992762</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>234.7800381259942</v>
       </c>
       <c r="D3" t="n">
-        <v>260.7963925174648</v>
+        <v>239.3275793925661</v>
       </c>
       <c r="E3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="F3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="G3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="H3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="I3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="J3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="K3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="L3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="O3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="P3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
     </row>
     <row r="4">
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.80207166992762</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>222.9779664560666</v>
+        <v>234.7800381259942</v>
       </c>
       <c r="D3" t="n">
-        <v>26.01635439147063</v>
+        <v>4.547541266571937</v>
       </c>
       <c r="E3" t="n">
-        <v>59.02482598057782</v>
+        <v>86.85385259601865</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04744551425096528</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4859013728226984</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.829143188160341</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.026878715157869</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.03524733340123</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.487257990159211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.331017154219815</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.465821721585371</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.994035389252334</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.822724256181627</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.123581777068932</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>2.980349284567201</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.081164655993873</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2076927386336007</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.003795641140077222</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02538558812022168</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2451713378979305</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8740213453672817</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.398381375867085</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.099215779921938</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5.511901490752519</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>6.432129060110555</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>6.602368376934323</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.039877187533621</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.847533927974613</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.240448055486544</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.576133269429203</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4715261653032402</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.102321734572297</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.001670104481593532</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0212824243228203</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1892200998883479</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6400205423626326</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.504667399623395</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2.472630753142213</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.164116067049121</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3.336116750894459</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.256791351145767</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.008173939738275</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.574012483552738</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.782112822159071</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9569351881879018</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3708946129713319</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.09093399483386855</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001160859508517472</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.048427708612923</v>
+        <v>0.9621209221811696</v>
       </c>
       <c r="H8" t="n">
-        <v>10.7372102708321</v>
+        <v>9.853320894287906</v>
       </c>
       <c r="I8" t="n">
-        <v>40.41950923629976</v>
+        <v>37.09216685238957</v>
       </c>
       <c r="J8" t="n">
-        <v>88.98399123388617</v>
+        <v>81.65881061897412</v>
       </c>
       <c r="K8" t="n">
-        <v>133.3639361394712</v>
+        <v>122.385389254903</v>
       </c>
       <c r="L8" t="n">
-        <v>165.449755626934</v>
+        <v>151.8298974271051</v>
       </c>
       <c r="M8" t="n">
-        <v>184.0947318899791</v>
+        <v>168.9400153769444</v>
       </c>
       <c r="N8" t="n">
-        <v>187.0735771170756</v>
+        <v>171.6736414470917</v>
       </c>
       <c r="O8" t="n">
-        <v>176.6482740895558</v>
+        <v>162.1065515271527</v>
       </c>
       <c r="P8" t="n">
-        <v>150.7652150331742</v>
+        <v>138.354191260805</v>
       </c>
       <c r="Q8" t="n">
-        <v>113.2183977184739</v>
+        <v>103.8982357351918</v>
       </c>
       <c r="R8" t="n">
-        <v>65.8582970511566</v>
+        <v>60.43682837796295</v>
       </c>
       <c r="S8" t="n">
-        <v>23.89104641001701</v>
+        <v>21.92433051420343</v>
       </c>
       <c r="T8" t="n">
-        <v>4.589492294453073</v>
+        <v>4.211684336848072</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08387421668903385</v>
+        <v>0.07696967377449355</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.560958278245113</v>
+        <v>0.5147800764292931</v>
       </c>
       <c r="H9" t="n">
-        <v>5.417676003051488</v>
+        <v>4.971691790777648</v>
       </c>
       <c r="I9" t="n">
-        <v>19.31369510624622</v>
+        <v>17.72378771916646</v>
       </c>
       <c r="J9" t="n">
-        <v>52.99825557753501</v>
+        <v>48.63542818580441</v>
       </c>
       <c r="K9" t="n">
-        <v>90.58246021995758</v>
+        <v>83.12569330656706</v>
       </c>
       <c r="L9" t="n">
-        <v>121.799296335633</v>
+        <v>111.7727529983867</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>130.4335307689485</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>133.4662443858011</v>
+        <v>122.4792754651749</v>
       </c>
       <c r="P9" t="n">
-        <v>107.1184277115602</v>
+        <v>98.30041652446741</v>
       </c>
       <c r="Q9" t="n">
-        <v>71.60583214932356</v>
+        <v>65.71122519472873</v>
       </c>
       <c r="R9" t="n">
-        <v>34.82862011770975</v>
+        <v>31.96152088567139</v>
       </c>
       <c r="S9" t="n">
-        <v>10.41955398407041</v>
+        <v>9.561814138938839</v>
       </c>
       <c r="T9" t="n">
-        <v>2.261055516259907</v>
+        <v>2.074924957186493</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.03386711029140088</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.4315743234947913</v>
       </c>
       <c r="H10" t="n">
-        <v>4.181292981673455</v>
+        <v>3.837088076162784</v>
       </c>
       <c r="I10" t="n">
-        <v>14.14286010570121</v>
+        <v>12.97861692837064</v>
       </c>
       <c r="J10" t="n">
-        <v>33.24940237062826</v>
+        <v>30.51230467108174</v>
       </c>
       <c r="K10" t="n">
-        <v>54.63898190775737</v>
+        <v>50.14108958421302</v>
       </c>
       <c r="L10" t="n">
-        <v>69.91908529886263</v>
+        <v>64.1633316948529</v>
       </c>
       <c r="M10" t="n">
-        <v>73.71987206850237</v>
+        <v>67.65123690927896</v>
       </c>
       <c r="N10" t="n">
-        <v>71.96697828272931</v>
+        <v>66.0426417035257</v>
       </c>
       <c r="O10" t="n">
-        <v>66.47315263707451</v>
+        <v>61.00106892451834</v>
       </c>
       <c r="P10" t="n">
-        <v>56.87926567298936</v>
+        <v>52.19695272522456</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.38025527013719</v>
+        <v>36.13846448827749</v>
       </c>
       <c r="R10" t="n">
-        <v>21.14588454739968</v>
+        <v>19.40515094550216</v>
       </c>
       <c r="S10" t="n">
-        <v>8.195847286163604</v>
+        <v>7.521163437631952</v>
       </c>
       <c r="T10" t="n">
-        <v>2.009414827593581</v>
+        <v>1.843999382205017</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.02354041764517046</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H11" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I11" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J11" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K11" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L11" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M11" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P11" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q11" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R11" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S11" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T11" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H12" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I12" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J12" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K12" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -31856,22 +31858,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R12" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S12" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T12" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H13" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I13" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J13" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K13" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L13" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M13" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N13" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O13" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P13" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R13" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S13" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T13" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H14" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I14" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J14" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K14" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L14" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M14" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P14" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q14" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R14" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S14" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T14" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H15" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I15" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J15" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K15" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -32093,22 +32095,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R15" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S15" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T15" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H16" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I16" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J16" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K16" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L16" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M16" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N16" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O16" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P16" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R16" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S16" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T16" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H17" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I17" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J17" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K17" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L17" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M17" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N17" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P17" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q17" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R17" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S17" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T17" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H18" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I18" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J18" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K18" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -32330,22 +32332,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R18" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S18" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T18" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H19" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I19" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J19" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K19" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L19" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M19" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N19" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O19" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P19" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R19" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S19" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T19" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H20" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I20" t="n">
-        <v>49.56746744179212</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J20" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K20" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L20" t="n">
-        <v>202.8952238718788</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M20" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N20" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P20" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q20" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R20" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S20" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T20" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H21" t="n">
-        <v>6.643833237100848</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I21" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J21" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K21" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
@@ -32567,22 +32569,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.8120447468588</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R21" t="n">
-        <v>42.71121857602163</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S21" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T21" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H22" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I22" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J22" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K22" t="n">
-        <v>67.00516676073742</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L22" t="n">
-        <v>85.74354438224572</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M22" t="n">
-        <v>90.40454541904504</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N22" t="n">
-        <v>88.25492739307465</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O22" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P22" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R22" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S22" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T22" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H23" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I23" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J23" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K23" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L23" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M23" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N23" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P23" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q23" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R23" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S23" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T23" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H24" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I24" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J24" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K24" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -32804,22 +32806,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R24" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S24" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T24" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H25" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I25" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J25" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K25" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L25" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M25" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N25" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O25" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P25" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R25" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S25" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T25" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H26" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I26" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J26" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K26" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L26" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M26" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N26" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P26" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q26" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R26" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S26" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T26" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H27" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I27" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J27" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K27" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
@@ -33041,22 +33043,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R27" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S27" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T27" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H28" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I28" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J28" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K28" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L28" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M28" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N28" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O28" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P28" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R28" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S28" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T28" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H29" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I29" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J29" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K29" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L29" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M29" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N29" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P29" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q29" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R29" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S29" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T29" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H30" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I30" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J30" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K30" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
@@ -33278,22 +33280,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R30" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S30" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T30" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H31" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I31" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J31" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K31" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L31" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M31" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N31" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O31" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P31" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R31" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S31" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T31" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H32" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I32" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J32" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K32" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L32" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M32" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N32" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P32" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q32" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R32" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S32" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T32" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H33" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I33" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J33" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K33" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33515,22 +33517,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R33" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S33" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T33" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H34" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I34" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J34" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K34" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L34" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M34" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N34" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O34" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P34" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R34" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S34" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T34" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H35" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I35" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J35" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K35" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L35" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M35" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N35" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P35" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q35" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R35" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S35" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T35" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H36" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I36" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J36" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K36" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -33752,22 +33754,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R36" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S36" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T36" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H37" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I37" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J37" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K37" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L37" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M37" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N37" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O37" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P37" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R37" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S37" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T37" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H38" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I38" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J38" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K38" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L38" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M38" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N38" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P38" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q38" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R38" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S38" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T38" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H39" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I39" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J39" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K39" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -33989,22 +33991,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R39" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S39" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T39" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H40" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I40" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J40" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K40" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L40" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M40" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N40" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O40" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P40" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R40" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S40" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T40" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H41" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I41" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J41" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K41" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L41" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M41" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N41" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P41" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q41" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R41" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S41" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T41" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H42" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I42" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J42" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K42" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -34226,22 +34228,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R42" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S42" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T42" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H43" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I43" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J43" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K43" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L43" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M43" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N43" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O43" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P43" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R43" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S43" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T43" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H44" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I44" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J44" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K44" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L44" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M44" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N44" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P44" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q44" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R44" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S44" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T44" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H45" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I45" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J45" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K45" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -34463,22 +34465,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R45" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S45" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T45" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H46" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I46" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J46" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K46" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L46" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M46" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N46" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O46" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P46" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R46" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S46" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T46" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_22_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_22_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>203165.6802735372</v>
+        <v>64502.07314334651</v>
       </c>
     </row>
     <row r="7">
@@ -24946,10 +24946,10 @@
         <v>53.28984570098882</v>
       </c>
       <c r="L32" t="n">
-        <v>28.8362588753597</v>
+        <v>28.83625887535973</v>
       </c>
       <c r="M32" t="n">
-        <v>0.09656339947136416</v>
+        <v>0.09656339947139259</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -25104,13 +25104,13 @@
         <v>60.67557455063191</v>
       </c>
       <c r="L34" t="n">
-        <v>47.4359690887577</v>
+        <v>47.43596908875769</v>
       </c>
       <c r="M34" t="n">
         <v>46.72338342663512</v>
       </c>
       <c r="N34" t="n">
-        <v>37.67551094615366</v>
+        <v>37.67551094615368</v>
       </c>
       <c r="O34" t="n">
         <v>55.31770395088348</v>
@@ -26328,13 +26328,13 @@
         <v>82294.53236373072</v>
       </c>
       <c r="G2" t="n">
-        <v>82294.5323637307</v>
+        <v>82294.53236373072</v>
       </c>
       <c r="H2" t="n">
-        <v>82294.5323637307</v>
+        <v>82294.53236373072</v>
       </c>
       <c r="I2" t="n">
-        <v>82294.5323637307</v>
+        <v>82294.53236373072</v>
       </c>
       <c r="J2" t="n">
         <v>82294.53236373072</v>
@@ -26352,10 +26352,10 @@
         <v>82294.53236373072</v>
       </c>
       <c r="O2" t="n">
-        <v>82294.5323637307</v>
+        <v>82294.53236373072</v>
       </c>
       <c r="P2" t="n">
-        <v>82294.5323637307</v>
+        <v>82294.53236373073</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="C6" t="n">
-        <v>-191571.8709211377</v>
+        <v>-208511.7324508262</v>
       </c>
       <c r="D6" t="n">
-        <v>19360.59961732056</v>
+        <v>2487.503538616322</v>
       </c>
       <c r="E6" t="n">
-        <v>5405.131409180396</v>
+        <v>-10280.05799250135</v>
       </c>
       <c r="F6" t="n">
-        <v>75183.77714637957</v>
+        <v>59498.58774469782</v>
       </c>
       <c r="G6" t="n">
-        <v>75183.77714637955</v>
+        <v>59498.58774469782</v>
       </c>
       <c r="H6" t="n">
-        <v>75183.77714637955</v>
+        <v>59498.58774469782</v>
       </c>
       <c r="I6" t="n">
-        <v>75183.77714637955</v>
+        <v>59498.58774469782</v>
       </c>
       <c r="J6" t="n">
-        <v>75183.77714637957</v>
+        <v>59498.58774469782</v>
       </c>
       <c r="K6" t="n">
-        <v>75183.77714637957</v>
+        <v>59498.58774469782</v>
       </c>
       <c r="L6" t="n">
-        <v>75183.77714637957</v>
+        <v>59498.58774469782</v>
       </c>
       <c r="M6" t="n">
-        <v>75183.77714637957</v>
+        <v>59498.58774469782</v>
       </c>
       <c r="N6" t="n">
-        <v>75183.77714637957</v>
+        <v>59498.58774469782</v>
       </c>
       <c r="O6" t="n">
-        <v>75183.77714637955</v>
+        <v>59498.58774469782</v>
       </c>
       <c r="P6" t="n">
-        <v>75183.77714637955</v>
+        <v>59498.58774469783</v>
       </c>
     </row>
   </sheetData>
@@ -33429,7 +33429,7 @@
         <v>206.9301560946275</v>
       </c>
       <c r="M32" t="n">
-        <v>230.2496698278014</v>
+        <v>230.2496698278013</v>
       </c>
       <c r="N32" t="n">
         <v>229.4130635965909</v>
@@ -33578,19 +33578,19 @@
         <v>17.68865863964326</v>
       </c>
       <c r="J34" t="n">
-        <v>41.58545896024957</v>
+        <v>41.58545896024956</v>
       </c>
       <c r="K34" t="n">
         <v>68.33768361990347</v>
       </c>
       <c r="L34" t="n">
-        <v>87.44870719248058</v>
+        <v>87.4487071924806</v>
       </c>
       <c r="M34" t="n">
         <v>92.20240052096993</v>
       </c>
       <c r="N34" t="n">
-        <v>90.01003351907953</v>
+        <v>90.01003351907951</v>
       </c>
       <c r="O34" t="n">
         <v>83.13883450095931</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_22_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_22_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64502.07314334651</v>
+        <v>188878.729060635</v>
       </c>
     </row>
     <row r="7">
@@ -23287,10 +23287,10 @@
         <v>53.28984570098882</v>
       </c>
       <c r="L11" t="n">
-        <v>28.8362588753597</v>
+        <v>28.83625887535973</v>
       </c>
       <c r="M11" t="n">
-        <v>0.09656339947136416</v>
+        <v>0.09656339947139259</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -23445,13 +23445,13 @@
         <v>60.67557455063191</v>
       </c>
       <c r="L13" t="n">
-        <v>47.4359690887577</v>
+        <v>47.43596908875769</v>
       </c>
       <c r="M13" t="n">
         <v>46.72338342663512</v>
       </c>
       <c r="N13" t="n">
-        <v>37.67551094615366</v>
+        <v>37.67551094615368</v>
       </c>
       <c r="O13" t="n">
         <v>55.31770395088348</v>
@@ -24946,10 +24946,10 @@
         <v>53.28984570098882</v>
       </c>
       <c r="L32" t="n">
-        <v>28.83625887535973</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M32" t="n">
-        <v>0.09656339947139259</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -25104,13 +25104,13 @@
         <v>60.67557455063191</v>
       </c>
       <c r="L34" t="n">
-        <v>47.43596908875769</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M34" t="n">
         <v>46.72338342663512</v>
       </c>
       <c r="N34" t="n">
-        <v>37.67551094615368</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O34" t="n">
         <v>55.31770395088348</v>
@@ -26355,7 +26355,7 @@
         <v>82294.53236373072</v>
       </c>
       <c r="P2" t="n">
-        <v>82294.53236373073</v>
+        <v>82294.53236373072</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         <v>213791.1722776066</v>
       </c>
       <c r="D3" t="n">
-        <v>3894.578006269939</v>
+        <v>3894.578006269942</v>
       </c>
       <c r="E3" t="n">
         <v>69778.64573719917</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-54153.64424660708</v>
+        <v>-35680.2044246607</v>
       </c>
       <c r="C6" t="n">
-        <v>-208511.7324508262</v>
+        <v>-193265.8570741065</v>
       </c>
       <c r="D6" t="n">
-        <v>2487.503538616322</v>
+        <v>17673.29000945013</v>
       </c>
       <c r="E6" t="n">
-        <v>-10280.05799250135</v>
+        <v>3836.612469012221</v>
       </c>
       <c r="F6" t="n">
-        <v>59498.58774469782</v>
+        <v>73615.25820621139</v>
       </c>
       <c r="G6" t="n">
-        <v>59498.58774469782</v>
+        <v>73615.25820621139</v>
       </c>
       <c r="H6" t="n">
-        <v>59498.58774469782</v>
+        <v>73615.25820621139</v>
       </c>
       <c r="I6" t="n">
-        <v>59498.58774469782</v>
+        <v>73615.25820621139</v>
       </c>
       <c r="J6" t="n">
-        <v>59498.58774469782</v>
+        <v>73615.25820621139</v>
       </c>
       <c r="K6" t="n">
-        <v>59498.58774469782</v>
+        <v>73615.25820621139</v>
       </c>
       <c r="L6" t="n">
-        <v>59498.58774469782</v>
+        <v>73615.25820621139</v>
       </c>
       <c r="M6" t="n">
-        <v>59498.58774469782</v>
+        <v>73615.25820621139</v>
       </c>
       <c r="N6" t="n">
-        <v>59498.58774469782</v>
+        <v>73615.25820621139</v>
       </c>
       <c r="O6" t="n">
-        <v>59498.58774469782</v>
+        <v>73615.25820621139</v>
       </c>
       <c r="P6" t="n">
-        <v>59498.58774469783</v>
+        <v>73615.25820621139</v>
       </c>
     </row>
   </sheetData>
@@ -26965,7 +26965,7 @@
         <v>234.7800381259942</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547541266571937</v>
+        <v>4.54754126657194</v>
       </c>
       <c r="E3" t="n">
         <v>86.85385259601865</v>
@@ -31770,7 +31770,7 @@
         <v>206.9301560946275</v>
       </c>
       <c r="M11" t="n">
-        <v>230.2496698278014</v>
+        <v>230.2496698278013</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
@@ -31919,19 +31919,19 @@
         <v>17.68865863964326</v>
       </c>
       <c r="J13" t="n">
-        <v>41.58545896024957</v>
+        <v>41.58545896024956</v>
       </c>
       <c r="K13" t="n">
         <v>68.33768361990347</v>
       </c>
       <c r="L13" t="n">
-        <v>87.44870719248058</v>
+        <v>87.4487071924806</v>
       </c>
       <c r="M13" t="n">
         <v>92.20240052096993</v>
       </c>
       <c r="N13" t="n">
-        <v>90.01003351907953</v>
+        <v>90.01003351907951</v>
       </c>
       <c r="O13" t="n">
         <v>83.13883450095931</v>
@@ -33429,7 +33429,7 @@
         <v>206.9301560946275</v>
       </c>
       <c r="M32" t="n">
-        <v>230.2496698278013</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N32" t="n">
         <v>229.4130635965909</v>
@@ -33578,19 +33578,19 @@
         <v>17.68865863964326</v>
       </c>
       <c r="J34" t="n">
-        <v>41.58545896024956</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K34" t="n">
         <v>68.33768361990347</v>
       </c>
       <c r="L34" t="n">
-        <v>87.4487071924806</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M34" t="n">
         <v>92.20240052096993</v>
       </c>
       <c r="N34" t="n">
-        <v>90.01003351907951</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O34" t="n">
         <v>83.13883450095931</v>
